--- a/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,18 @@
     <sheet name="002_editPosUser" sheetId="5" r:id="rId3"/>
     <sheet name="003_setPosUserPower" sheetId="4" r:id="rId4"/>
     <sheet name="004_delPosUser" sheetId="6" r:id="rId5"/>
+    <sheet name="005_exportParkingRecord" sheetId="7" r:id="rId6"/>
+    <sheet name="006_exportParkingOperation" sheetId="8" r:id="rId7"/>
+    <sheet name="007_exportEvenRecord" sheetId="9" r:id="rId8"/>
+    <sheet name="008_exportParkingViolateRecord" sheetId="10" r:id="rId9"/>
+    <sheet name="009_exportMobileReportRecord" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="165">
   <si>
     <t>动作</t>
   </si>
@@ -444,6 +449,75 @@
   </si>
   <si>
     <t>MobileUserPage.温馨提示-确认</t>
+  </si>
+  <si>
+    <t>点击移动盘点</t>
+  </si>
+  <si>
+    <t>点击车场盘点记录</t>
+  </si>
+  <si>
+    <t>MobileUserPage.车场盘点记录</t>
+  </si>
+  <si>
+    <t>1车场盘点记录管理界面</t>
+  </si>
+  <si>
+    <t>点击操作时间</t>
+  </si>
+  <si>
+    <t>MobileUserPage.操作时间</t>
+  </si>
+  <si>
+    <t>输入开始日期</t>
+  </si>
+  <si>
+    <t>MobileUserPage.开始日期</t>
+  </si>
+  <si>
+    <t>20170101</t>
+  </si>
+  <si>
+    <t>点击日期-确定</t>
+  </si>
+  <si>
+    <t>MobileUserPage.日期-确定</t>
+  </si>
+  <si>
+    <t>MobileUserPage.导出</t>
+  </si>
+  <si>
+    <t>3导出界面</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
+  </si>
+  <si>
+    <t>4导出后截图</t>
+  </si>
+  <si>
+    <t>MobileUserPage.盘点操作记录</t>
+  </si>
+  <si>
+    <t>1盘点操作记录管理界面</t>
+  </si>
+  <si>
+    <t>MobileUserPage.事件记录</t>
+  </si>
+  <si>
+    <t>1事件记录管理界面</t>
+  </si>
+  <si>
+    <t>MobileUserPage.违规记录</t>
+  </si>
+  <si>
+    <t>1违规记录管理界面</t>
+  </si>
+  <si>
+    <t>MobileUserPage.移动管理报表</t>
+  </si>
+  <si>
+    <t>1移动管理报表管理界面</t>
   </si>
 </sst>
 </file>
@@ -451,10 +525,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -487,24 +561,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +583,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,11 +605,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -555,8 +652,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,32 +676,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,14 +687,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -637,7 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +729,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,61 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,13 +819,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,25 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,30 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -897,8 +947,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -918,6 +986,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -928,15 +1011,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -945,10 +1019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,13 +1034,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,115 +1049,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1797,6 +1871,275 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2134,7 +2477,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2624,7 +2967,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2843,4 +3186,1083 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C28:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C27">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="41" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="167">
   <si>
     <t>动作</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>1移动管理报表管理界面</t>
+  </si>
+  <si>
+    <t>选择操作时间</t>
+  </si>
+  <si>
+    <t>MobileUserPage.时间维度</t>
   </si>
 </sst>
 </file>
@@ -561,37 +567,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,17 +583,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,18 +612,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,6 +639,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -668,6 +666,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,14 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,7 +711,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,85 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,25 +819,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,13 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,19 +873,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,17 +920,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,33 +944,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -982,6 +955,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,6 +985,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1019,145 +1025,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1874,10 +1880,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1972,66 +1978,64 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>124</v>
+      <c r="D9" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2041,97 +2045,67 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>154</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>153</v>
+      <c r="D11" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C25:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C9 C10 C11 C12 C13 C14 C15 C2:C3 C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C24">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="168">
   <si>
     <t>动作</t>
   </si>
@@ -524,6 +524,9 @@
   </si>
   <si>
     <t>MobileUserPage.时间维度</t>
+  </si>
+  <si>
+    <t>年报</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -567,6 +570,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -580,6 +606,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -597,8 +631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,6 +644,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -626,31 +684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -660,37 +693,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,7 +714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +726,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +757,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,31 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,54 +895,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,54 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -986,8 +941,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,6 +987,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1025,10 +1028,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1037,133 +1040,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1882,8 +1885,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1986,7 +1989,9 @@
       <c r="D6" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">

--- a/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" firstSheet="7" activeTab="9"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="165">
   <si>
     <t>动作</t>
   </si>
@@ -292,7 +292,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>MobileUserPage.账号</t>
+    <t>MobileUserPage.登录账号</t>
   </si>
   <si>
     <t>uiposUser</t>
@@ -301,121 +301,112 @@
     <t>6</t>
   </si>
   <si>
-    <t>MobileUserPage.密码</t>
+    <t>MobileUserPage.登录密码</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>MobileUserPage.姓名</t>
+  </si>
+  <si>
+    <t>UIpos管理员</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>MobileUserPage.手机号码</t>
+  </si>
+  <si>
+    <t>13800138000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>MobileUserPage.电子邮箱</t>
+  </si>
+  <si>
+    <t>ake@163.com</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>MobileUserPage.地址</t>
+  </si>
+  <si>
+    <t>艾科智泊</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2移动盘点新增界面</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>MobileUserPage.确认-提示</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>MobileUserPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>输入搜索框</t>
+  </si>
+  <si>
+    <t>MobileUserPage.搜索框</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>MobileUserPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>2搜索管理界面</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>MobileUserPage.确认密码</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>MobileUserPage.姓名</t>
-  </si>
-  <si>
-    <t>UIpos管理员</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>MobileUserPage.手机号</t>
-  </si>
-  <si>
-    <t>13800138000</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>MobileUserPage.电子邮箱</t>
-  </si>
-  <si>
-    <t>ake@163.com</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>MobileUserPage.地址</t>
-  </si>
-  <si>
-    <t>艾科智泊</t>
+    <t>点击编辑</t>
+  </si>
+  <si>
+    <t>MobileUserPage.编辑</t>
+  </si>
+  <si>
+    <t>输入修改后的坐席人员姓名</t>
+  </si>
+  <si>
+    <t>UIpos管理员new</t>
+  </si>
+  <si>
+    <t>3移动盘点修改界面</t>
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>MobileUserPage.描述</t>
-  </si>
-  <si>
-    <t>艾科智泊描述</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2移动盘点新增界面</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>MobileUserPage.确认-提示</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>MobileUserPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
-    <t>输入搜索框</t>
-  </si>
-  <si>
-    <t>MobileUserPage.搜索框</t>
-  </si>
-  <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
-    <t>MobileUserPage.搜索按钮</t>
-  </si>
-  <si>
-    <t>2搜索管理界面</t>
-  </si>
-  <si>
-    <t>点击编辑</t>
-  </si>
-  <si>
-    <t>MobileUserPage.编辑</t>
-  </si>
-  <si>
-    <t>输入修改后的坐席人员姓名</t>
-  </si>
-  <si>
-    <t>UIpos管理员new</t>
-  </si>
-  <si>
-    <t>3移动盘点修改界面</t>
   </si>
   <si>
     <t>4保存后截图</t>
@@ -535,9 +526,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -563,16 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,9 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,9 +600,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,41 +623,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,15 +643,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,6 +673,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -709,6 +700,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,25 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,126 +886,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,16 +914,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -948,21 +939,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -973,26 +949,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,8 +971,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,10 +1019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,133 +1031,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1885,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1936,7 +1927,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -1951,13 +1942,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -1973,7 +1964,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -1981,36 +1972,36 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>84</v>
@@ -2020,27 +2011,27 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2050,46 +2041,46 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>84</v>
@@ -2099,7 +2090,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2122,10 +2113,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2219,8 +2210,8 @@
         <v>88</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f t="shared" ref="B6:B13" si="0">C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
-        <v>输入账号</v>
+        <f>C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
+        <v>输入登录账号</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -2237,8 +2228,8 @@
         <v>91</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入密码</v>
+        <f>C7&amp;MID(D7,FIND(".",D7)+1,10)</f>
+        <v>输入登录密码</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -2255,8 +2246,8 @@
         <v>94</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入确认密码</v>
+        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
+        <v>输入姓名</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -2265,185 +2256,147 @@
         <v>95</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入姓名</v>
+        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
+        <v>输入手机号码</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入手机号</v>
+        <f>C10&amp;MID(D10,FIND(".",D10)+1,10)</f>
+        <v>输入电子邮箱</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="3" t="s">
         <v>101</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入电子邮箱</v>
+        <f>C11&amp;MID(D11,FIND(".",D11)+1,10)</f>
+        <v>输入地址</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" ht="33" customHeight="1" spans="1:6">
+    <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入地址</v>
+        <v>106</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:6">
+    </row>
+    <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>输入描述</v>
+      <c r="B13" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>110</v>
       </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="33" customHeight="1" spans="1:6">
+    <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C32:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C2:C3">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C20">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C31">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="ake@163.com"/>
+    <hyperlink ref="E10" r:id="rId1" display="ake@163.com"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2457,7 +2410,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2537,13 +2490,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>90</v>
@@ -2554,13 +2507,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2576,45 +2529,45 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2624,46 +2577,46 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>84</v>
@@ -2673,7 +2626,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2655,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2782,13 +2735,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>90</v>
@@ -2799,13 +2752,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2821,44 +2774,44 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -2868,46 +2821,46 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>84</v>
@@ -2917,7 +2870,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2945,8 +2898,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3026,13 +2979,13 @@
         <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>90</v>
@@ -3043,13 +2996,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3065,27 +3018,27 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>84</v>
@@ -3095,46 +3048,46 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>84</v>
@@ -3144,7 +3097,7 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3223,7 +3176,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3238,13 +3191,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3260,7 +3213,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3268,13 +3221,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3283,51 +3236,51 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -3337,27 +3290,27 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>84</v>
@@ -3367,46 +3320,46 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
@@ -3416,7 +3369,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3495,7 +3448,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3510,13 +3463,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3532,7 +3485,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3540,13 +3493,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3555,51 +3508,51 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -3609,27 +3562,27 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>84</v>
@@ -3639,46 +3592,46 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
@@ -3688,7 +3641,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3764,7 +3717,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -3779,13 +3732,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3801,7 +3754,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3809,13 +3762,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3824,51 +3777,51 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -3878,27 +3831,27 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>84</v>
@@ -3908,46 +3861,46 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
@@ -3957,7 +3910,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4033,7 +3986,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
@@ -4048,13 +4001,13 @@
         <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -4070,7 +4023,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -4078,13 +4031,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4093,51 +4046,51 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>84</v>
@@ -4147,27 +4100,27 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>84</v>
@@ -4177,46 +4130,46 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="6"/>
     </row>
     <row r="14" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>84</v>
@@ -4226,7 +4179,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/mobileUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840" activeTab="4"/>
+    <workbookView windowWidth="21600" windowHeight="9840" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -554,9 +554,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,16 +584,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,16 +600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,16 +616,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,17 +661,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,22 +689,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -700,126 +700,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,25 +735,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,6 +766,126 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,6 +914,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,15 +953,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -949,6 +964,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,43 +1006,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,10 +1019,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,16 +1031,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1049,115 +1049,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1876,8 +1876,8 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2115,8 +2115,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2194,7 +2194,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>C5&amp;MID(D5,FIND(".",D5)+1,10)</f>
+        <f t="shared" ref="B5:B11" si="0">C5&amp;MID(D5,FIND(".",D5)+1,10)</f>
         <v>点击新增</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2210,7 +2210,7 @@
         <v>88</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>C6&amp;MID(D6,FIND(".",D6)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入登录账号</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2228,7 +2228,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>C7&amp;MID(D7,FIND(".",D7)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入登录密码</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2246,7 +2246,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>C8&amp;MID(D8,FIND(".",D8)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入姓名</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2265,7 +2265,7 @@
         <v>97</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>C9&amp;MID(D9,FIND(".",D9)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入手机号码</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -2284,7 +2284,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>C10&amp;MID(D10,FIND(".",D10)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入电子邮箱</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2303,7 +2303,7 @@
         <v>103</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>C11&amp;MID(D11,FIND(".",D11)+1,10)</f>
+        <f t="shared" si="0"/>
         <v>输入地址</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2410,7 +2410,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2655,7 +2655,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2898,8 +2898,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3125,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="$A15:$XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3398,7 +3398,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
